--- a/result/gRSF results between our experiments and original paper.xlsx
+++ b/result/gRSF results between our experiments and original paper.xlsx
@@ -542,12 +542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E47"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="54.875" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="39.25" customWidth="1"/>
@@ -586,7 +587,7 @@
         <v>0.73150000000000004</v>
       </c>
       <c r="E2">
-        <v>326.5</v>
+        <v>246.77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -604,7 +605,7 @@
         <v>0.63329999999999997</v>
       </c>
       <c r="E3">
-        <v>75.84375</v>
+        <v>58.63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -622,7 +623,7 @@
         <v>0.99109999999999998</v>
       </c>
       <c r="E4">
-        <v>6.1406299999999998</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -640,7 +641,7 @@
         <v>0.65780000000000005</v>
       </c>
       <c r="E5">
-        <v>624.4375</v>
+        <v>575.30999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -658,7 +659,7 @@
         <v>0.85719999999999996</v>
       </c>
       <c r="E6">
-        <v>1164.9218800000001</v>
+        <v>1013.42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -676,7 +677,7 @@
         <v>0.96430000000000005</v>
       </c>
       <c r="E7">
-        <v>6.4375</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -694,7 +695,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="E8">
-        <v>1221.9375</v>
+        <v>1001.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -712,7 +713,7 @@
         <v>0.75639999999999996</v>
       </c>
       <c r="E9">
-        <v>1182.8281300000001</v>
+        <v>984.76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -730,7 +731,7 @@
         <v>0.7641</v>
       </c>
       <c r="E10">
-        <v>1214.8125</v>
+        <v>984.98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -748,7 +749,7 @@
         <v>0.77880000000000005</v>
       </c>
       <c r="E11">
-        <v>13.34375</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -766,7 +767,7 @@
         <v>0.83</v>
       </c>
       <c r="E12">
-        <v>13.609</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -784,7 +785,7 @@
         <v>0.99539999999999995</v>
       </c>
       <c r="E13">
-        <v>2.9375</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -802,7 +803,7 @@
         <v>0.74380000000000002</v>
       </c>
       <c r="E14">
-        <v>341.90625</v>
+        <v>281.17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -820,7 +821,7 @@
         <v>0.90910000000000002</v>
       </c>
       <c r="E15">
-        <v>28.296880000000002</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -838,7 +839,7 @@
         <v>0.88929999999999998</v>
       </c>
       <c r="E16">
-        <v>106.34375</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -856,7 +857,7 @@
         <v>0.69669999999999999</v>
       </c>
       <c r="E17">
-        <v>1059.59375</v>
+        <v>878.01</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -874,7 +875,7 @@
         <v>0.90859999999999996</v>
       </c>
       <c r="E18">
-        <v>482.09375</v>
+        <v>407.53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -892,7 +893,7 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E19">
-        <v>10.125</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -910,7 +911,7 @@
         <v>0.4708</v>
       </c>
       <c r="E20">
-        <v>3331.7968799999999</v>
+        <v>2703.15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -928,7 +929,7 @@
         <v>0.37819999999999998</v>
       </c>
       <c r="E21">
-        <v>6227.09375</v>
+        <v>5290.58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,7 +947,7 @@
         <v>0.94359999999999999</v>
       </c>
       <c r="E22">
-        <v>1.85938</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -964,7 +965,7 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E23">
-        <v>286.6875</v>
+        <v>235.14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -982,7 +983,7 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="E24">
-        <v>123.96875</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1000,7 +1001,7 @@
         <v>0.94820000000000004</v>
       </c>
       <c r="E25">
-        <v>634.84375</v>
+        <v>524.70000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1018,7 +1019,7 @@
         <v>0.69740000000000002</v>
       </c>
       <c r="E26">
-        <v>135.125</v>
+        <v>112.11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1036,7 +1037,7 @@
         <v>0.95209999999999995</v>
       </c>
       <c r="E27">
-        <v>1.85938</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1084,7 +1085,7 @@
         <v>0.9</v>
       </c>
       <c r="E30">
-        <v>67.25</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1102,7 +1103,7 @@
         <v>0.81820000000000004</v>
       </c>
       <c r="E31">
-        <v>781.79687999999999</v>
+        <v>660.54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1120,7 +1121,7 @@
         <v>0.98009999999999997</v>
       </c>
       <c r="E32">
-        <v>17446.890630000002</v>
+        <v>15059.41</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1138,7 +1139,7 @@
         <v>0.89680000000000004</v>
       </c>
       <c r="E33">
-        <v>1.46875</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1156,7 +1157,7 @@
         <v>0.87929999999999997</v>
       </c>
       <c r="E34">
-        <v>1.89063</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1174,7 +1175,7 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="E35">
-        <v>260.04687999999999</v>
+        <v>209.13</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1192,7 +1193,7 @@
         <v>0.75470000000000004</v>
       </c>
       <c r="E36">
-        <v>40.15625</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1210,7 +1211,7 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E37">
-        <v>35.125</v>
+        <v>29.39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1228,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>80.125</v>
+        <v>65.89</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1246,7 +1247,7 @@
         <v>0.99119999999999997</v>
       </c>
       <c r="E39">
-        <v>1.76563</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1264,7 +1265,7 @@
         <v>0.99429999999999996</v>
       </c>
       <c r="E40">
-        <v>451.375</v>
+        <v>363.1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1282,7 +1283,7 @@
         <v>0.80649999999999999</v>
       </c>
       <c r="E41">
-        <v>2800.03125</v>
+        <v>2461.2399999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1300,7 +1301,7 @@
         <v>0.72609999999999997</v>
       </c>
       <c r="E42">
-        <v>2851.9531299999999</v>
+        <v>2423.14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1318,7 +1319,7 @@
         <v>0.75149999999999995</v>
       </c>
       <c r="E43">
-        <v>2894.4218799999999</v>
+        <v>2366.84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -1336,7 +1337,7 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="E44">
-        <v>259.8125</v>
+        <v>212.89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -1354,7 +1355,7 @@
         <v>0.57369999999999999</v>
       </c>
       <c r="E45">
-        <v>558.35937999999999</v>
+        <v>459.67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -1372,7 +1373,7 @@
         <v>0.84630000000000005</v>
       </c>
       <c r="E46">
-        <v>1254.3593800000001</v>
+        <v>1073.6600000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
